--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 1.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="58">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>03 Jan -- 09 Jan 2021</t>
+  </si>
+  <si>
+    <t>10 Jan -- 16 Jan 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -542,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>1.27</v>
@@ -629,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -649,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -669,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -689,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -709,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -729,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -749,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -769,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -789,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -809,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -829,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -849,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -869,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -889,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -909,7 +912,7 @@
         <v>4.67</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -929,7 +932,7 @@
         <v>7.06</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -949,7 +952,7 @@
         <v>5.83</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -969,7 +972,7 @@
         <v>8.69</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -989,7 +992,7 @@
         <v>4.95</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1009,7 +1012,7 @@
         <v>7.13</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1029,7 +1032,7 @@
         <v>2.95</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1049,7 +1052,7 @@
         <v>2.83</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1069,7 +1072,7 @@
         <v>1.32</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1089,7 +1092,7 @@
         <v>2.52</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1109,7 +1112,7 @@
         <v>3.01</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1129,7 +1132,7 @@
         <v>0.06</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1149,7 +1152,7 @@
         <v>0.24</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1169,7 +1172,7 @@
         <v>17.92</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1189,7 +1192,7 @@
         <v>68.53</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1209,7 +1212,7 @@
         <v>0.51</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1229,7 +1232,7 @@
         <v>15.46</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1249,7 +1252,7 @@
         <v>6.64</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1269,7 +1272,7 @@
         <v>9.550000000000001</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1289,7 +1292,7 @@
         <v>7.23</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1309,7 +1312,7 @@
         <v>17.01</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1329,7 +1332,7 @@
         <v>6.1</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1349,7 +1352,7 @@
         <v>4.42</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1369,7 +1372,7 @@
         <v>8.470000000000001</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1389,7 +1392,7 @@
         <v>3.18</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1409,7 +1412,7 @@
         <v>18.29</v>
       </c>
       <c r="F42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1429,7 +1432,7 @@
         <v>38.18</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1449,7 +1452,7 @@
         <v>61.88</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J44">
         <v>61.88</v>
@@ -1475,13 +1478,27 @@
         <v>61.88</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J45">
         <v>61.88</v>
       </c>
       <c r="K45">
         <v>37.28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46">
+        <v>116.14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 1.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="60">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -55,6 +55,9 @@
     <t>2021-01-09</t>
   </si>
   <si>
+    <t>2021-01-16</t>
+  </si>
+  <si>
     <t>15 Mar -- 21 Mar 2020</t>
   </si>
   <si>
@@ -185,6 +188,9 @@
   </si>
   <si>
     <t>10 Jan -- 16 Jan 2021</t>
+  </si>
+  <si>
+    <t>17 Jan -- 23 Jan 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -545,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -591,7 +597,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>2.57</v>
@@ -603,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G2">
         <v>1.27</v>
@@ -620,7 +626,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -632,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -640,7 +646,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>22.43</v>
@@ -652,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -660,7 +666,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>62.29</v>
@@ -672,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -680,7 +686,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>106.71</v>
@@ -692,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -700,7 +706,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>167.14</v>
@@ -712,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -720,7 +726,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>159</v>
@@ -732,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -740,7 +746,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>162.71</v>
@@ -752,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,7 +766,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>139.57</v>
@@ -772,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -780,7 +786,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>95.14</v>
@@ -792,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -800,7 +806,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>99</v>
@@ -812,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -820,7 +826,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>98.70999999999999</v>
@@ -832,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -840,7 +846,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>47.57</v>
@@ -852,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -860,7 +866,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>40.43</v>
@@ -872,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -880,7 +886,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>15.71</v>
@@ -892,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -900,7 +906,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>22.29</v>
@@ -912,7 +918,7 @@
         <v>4.67</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -920,7 +926,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>12.29</v>
@@ -932,7 +938,7 @@
         <v>7.06</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -940,7 +946,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>10.57</v>
@@ -952,7 +958,7 @@
         <v>5.83</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -960,7 +966,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>5.29</v>
@@ -972,7 +978,7 @@
         <v>8.69</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -980,7 +986,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21">
         <v>8.140000000000001</v>
@@ -992,7 +998,7 @@
         <v>4.95</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1000,7 +1006,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>5.43</v>
@@ -1012,7 +1018,7 @@
         <v>7.13</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1020,7 +1026,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>6.86</v>
@@ -1032,7 +1038,7 @@
         <v>2.95</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1040,7 +1046,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24">
         <v>6.43</v>
@@ -1052,7 +1058,7 @@
         <v>2.83</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1060,7 +1066,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25">
         <v>6.29</v>
@@ -1072,7 +1078,7 @@
         <v>1.32</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1080,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26">
         <v>4.43</v>
@@ -1092,7 +1098,7 @@
         <v>2.52</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1100,7 +1106,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -1112,7 +1118,7 @@
         <v>3.01</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1120,7 +1126,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -1132,7 +1138,7 @@
         <v>0.06</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1140,7 +1146,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29">
         <v>7.29</v>
@@ -1152,7 +1158,7 @@
         <v>0.24</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1160,7 +1166,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30">
         <v>25</v>
@@ -1172,7 +1178,7 @@
         <v>17.92</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1180,7 +1186,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31">
         <v>24.71</v>
@@ -1192,7 +1198,7 @@
         <v>68.53</v>
       </c>
       <c r="F31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1200,7 +1206,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32">
         <v>17.29</v>
@@ -1212,7 +1218,7 @@
         <v>0.51</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1220,7 +1226,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33">
         <v>26.71</v>
@@ -1232,7 +1238,7 @@
         <v>15.46</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1240,7 +1246,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34">
         <v>31.14</v>
@@ -1252,7 +1258,7 @@
         <v>6.64</v>
       </c>
       <c r="F34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1260,7 +1266,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C35">
         <v>51.43</v>
@@ -1272,7 +1278,7 @@
         <v>9.550000000000001</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1280,7 +1286,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C36">
         <v>57.14</v>
@@ -1292,7 +1298,7 @@
         <v>7.23</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1300,7 +1306,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37">
         <v>72.56999999999999</v>
@@ -1312,7 +1318,7 @@
         <v>17.01</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1320,7 +1326,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38">
         <v>76.86</v>
@@ -1332,7 +1338,7 @@
         <v>6.1</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1340,7 +1346,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C39">
         <v>87.70999999999999</v>
@@ -1352,7 +1358,7 @@
         <v>4.42</v>
       </c>
       <c r="F39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1360,7 +1366,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C40">
         <v>108.57</v>
@@ -1372,7 +1378,7 @@
         <v>8.470000000000001</v>
       </c>
       <c r="F40" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1380,7 +1386,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C41">
         <v>114.86</v>
@@ -1392,7 +1398,7 @@
         <v>3.18</v>
       </c>
       <c r="F41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1400,7 +1406,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C42">
         <v>94.70999999999999</v>
@@ -1412,7 +1418,7 @@
         <v>18.29</v>
       </c>
       <c r="F42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1420,7 +1426,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C43">
         <v>124.71</v>
@@ -1432,7 +1438,7 @@
         <v>38.18</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1440,7 +1446,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C44">
         <v>166</v>
@@ -1452,7 +1458,7 @@
         <v>61.88</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J44">
         <v>61.88</v>
@@ -1466,7 +1472,7 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45">
         <v>166</v>
@@ -1478,7 +1484,7 @@
         <v>61.88</v>
       </c>
       <c r="F45" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J45">
         <v>61.88</v>
@@ -1492,13 +1498,39 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C46">
+        <v>145.43</v>
       </c>
       <c r="D46">
         <v>116.14</v>
       </c>
+      <c r="E46">
+        <v>29.29</v>
+      </c>
       <c r="F46" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="J46">
+        <v>51.02</v>
+      </c>
+      <c r="K46">
+        <v>31.57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47">
+        <v>123.48</v>
+      </c>
+      <c r="F47" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 1.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="62">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -58,6 +58,9 @@
     <t>2021-01-16</t>
   </si>
   <si>
+    <t>2021-01-30</t>
+  </si>
+  <si>
     <t>15 Mar -- 21 Mar 2020</t>
   </si>
   <si>
@@ -191,6 +194,9 @@
   </si>
   <si>
     <t>17 Jan -- 23 Jan 2021</t>
+  </si>
+  <si>
+    <t>24 Jan -- 30 Jan 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -551,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>2.57</v>
@@ -609,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G2">
         <v>1.27</v>
@@ -626,7 +632,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -638,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -646,7 +652,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>22.43</v>
@@ -658,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -666,7 +672,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>62.29</v>
@@ -678,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -686,7 +692,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>106.71</v>
@@ -698,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -706,7 +712,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>167.14</v>
@@ -718,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -726,7 +732,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>159</v>
@@ -738,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -746,7 +752,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>162.71</v>
@@ -758,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -766,7 +772,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>139.57</v>
@@ -778,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,7 +792,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>95.14</v>
@@ -798,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -806,7 +812,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>99</v>
@@ -818,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -826,7 +832,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>98.70999999999999</v>
@@ -838,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -846,7 +852,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>47.57</v>
@@ -858,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -866,7 +872,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>40.43</v>
@@ -878,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -886,7 +892,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>15.71</v>
@@ -898,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -906,7 +912,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>22.29</v>
@@ -918,7 +924,7 @@
         <v>4.67</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -926,7 +932,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>12.29</v>
@@ -938,7 +944,7 @@
         <v>7.06</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -946,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <v>10.57</v>
@@ -958,7 +964,7 @@
         <v>5.83</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -966,7 +972,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20">
         <v>5.29</v>
@@ -978,7 +984,7 @@
         <v>8.69</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -986,7 +992,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21">
         <v>8.140000000000001</v>
@@ -998,7 +1004,7 @@
         <v>4.95</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1006,7 +1012,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>5.43</v>
@@ -1018,7 +1024,7 @@
         <v>7.13</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1026,7 +1032,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>6.86</v>
@@ -1038,7 +1044,7 @@
         <v>2.95</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1046,7 +1052,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24">
         <v>6.43</v>
@@ -1058,7 +1064,7 @@
         <v>2.83</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1066,7 +1072,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25">
         <v>6.29</v>
@@ -1078,7 +1084,7 @@
         <v>1.32</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1086,7 +1092,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26">
         <v>4.43</v>
@@ -1098,7 +1104,7 @@
         <v>2.52</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1106,7 +1112,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -1118,7 +1124,7 @@
         <v>3.01</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1126,7 +1132,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -1138,7 +1144,7 @@
         <v>0.06</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1146,7 +1152,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29">
         <v>7.29</v>
@@ -1158,7 +1164,7 @@
         <v>0.24</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1166,7 +1172,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30">
         <v>25</v>
@@ -1178,7 +1184,7 @@
         <v>17.92</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1186,7 +1192,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31">
         <v>24.71</v>
@@ -1198,7 +1204,7 @@
         <v>68.53</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1206,7 +1212,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32">
         <v>17.29</v>
@@ -1218,7 +1224,7 @@
         <v>0.51</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1226,7 +1232,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33">
         <v>26.71</v>
@@ -1238,7 +1244,7 @@
         <v>15.46</v>
       </c>
       <c r="F33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1246,7 +1252,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C34">
         <v>31.14</v>
@@ -1258,7 +1264,7 @@
         <v>6.64</v>
       </c>
       <c r="F34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1266,7 +1272,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35">
         <v>51.43</v>
@@ -1278,7 +1284,7 @@
         <v>9.550000000000001</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1286,7 +1292,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36">
         <v>57.14</v>
@@ -1298,7 +1304,7 @@
         <v>7.23</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1306,7 +1312,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37">
         <v>72.56999999999999</v>
@@ -1318,7 +1324,7 @@
         <v>17.01</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1326,7 +1332,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38">
         <v>76.86</v>
@@ -1338,7 +1344,7 @@
         <v>6.1</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1346,7 +1352,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C39">
         <v>87.70999999999999</v>
@@ -1358,7 +1364,7 @@
         <v>4.42</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1366,7 +1372,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C40">
         <v>108.57</v>
@@ -1378,7 +1384,7 @@
         <v>8.470000000000001</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1386,7 +1392,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C41">
         <v>114.86</v>
@@ -1398,7 +1404,7 @@
         <v>3.18</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1406,7 +1412,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C42">
         <v>94.70999999999999</v>
@@ -1418,7 +1424,7 @@
         <v>18.29</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1426,7 +1432,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C43">
         <v>124.71</v>
@@ -1438,7 +1444,7 @@
         <v>38.18</v>
       </c>
       <c r="F43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1446,7 +1452,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C44">
         <v>166</v>
@@ -1458,7 +1464,7 @@
         <v>61.88</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J44">
         <v>61.88</v>
@@ -1472,7 +1478,7 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C45">
         <v>166</v>
@@ -1484,7 +1490,7 @@
         <v>61.88</v>
       </c>
       <c r="F45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J45">
         <v>61.88</v>
@@ -1498,7 +1504,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C46">
         <v>145.43</v>
@@ -1510,7 +1516,7 @@
         <v>29.29</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J46">
         <v>51.02</v>
@@ -1524,13 +1530,51 @@
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C47">
+        <v>144.86</v>
       </c>
       <c r="D47">
         <v>123.48</v>
       </c>
+      <c r="E47">
+        <v>21.38</v>
+      </c>
       <c r="F47" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="J47">
+        <v>43.61</v>
+      </c>
+      <c r="K47">
+        <v>27.36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48">
+        <v>133.43</v>
+      </c>
+      <c r="D48">
+        <v>126.64</v>
+      </c>
+      <c r="E48">
+        <v>6.79</v>
+      </c>
+      <c r="F48" t="s">
+        <v>61</v>
+      </c>
+      <c r="J48">
+        <v>36.25</v>
+      </c>
+      <c r="K48">
+        <v>22.91</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 1.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="63">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>24 Jan -- 30 Jan 2021</t>
+  </si>
+  <si>
+    <t>31 Jan -- 06 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -557,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G2">
         <v>1.27</v>
@@ -644,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -664,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -684,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -704,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -724,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -744,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -764,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -784,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -804,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -824,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -844,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -864,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -884,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -904,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -924,7 +927,7 @@
         <v>4.67</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -944,7 +947,7 @@
         <v>7.06</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -964,7 +967,7 @@
         <v>5.83</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -984,7 +987,7 @@
         <v>8.69</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1004,7 +1007,7 @@
         <v>4.95</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1024,7 +1027,7 @@
         <v>7.13</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1044,7 +1047,7 @@
         <v>2.95</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1064,7 +1067,7 @@
         <v>2.83</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1084,7 +1087,7 @@
         <v>1.32</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1104,7 +1107,7 @@
         <v>2.52</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1124,7 +1127,7 @@
         <v>3.01</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1144,7 +1147,7 @@
         <v>0.06</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1164,7 +1167,7 @@
         <v>0.24</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1184,7 +1187,7 @@
         <v>17.92</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1204,7 +1207,7 @@
         <v>68.53</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1224,7 +1227,7 @@
         <v>0.51</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1244,7 +1247,7 @@
         <v>15.46</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1264,7 +1267,7 @@
         <v>6.64</v>
       </c>
       <c r="F34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1284,7 +1287,7 @@
         <v>9.550000000000001</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1304,7 +1307,7 @@
         <v>7.23</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1324,7 +1327,7 @@
         <v>17.01</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1344,7 +1347,7 @@
         <v>6.1</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1364,7 +1367,7 @@
         <v>4.42</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1384,7 +1387,7 @@
         <v>8.470000000000001</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1404,7 +1407,7 @@
         <v>3.18</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1424,7 +1427,7 @@
         <v>18.29</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1444,7 +1447,7 @@
         <v>38.18</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1464,7 +1467,7 @@
         <v>61.88</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J44">
         <v>61.88</v>
@@ -1490,7 +1493,7 @@
         <v>61.88</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J45">
         <v>61.88</v>
@@ -1516,7 +1519,7 @@
         <v>29.29</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J46">
         <v>51.02</v>
@@ -1542,7 +1545,7 @@
         <v>21.38</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J47">
         <v>43.61</v>
@@ -1568,13 +1571,27 @@
         <v>6.79</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J48">
         <v>36.25</v>
       </c>
       <c r="K48">
         <v>22.91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49">
+        <v>123.43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 1.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="65">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -61,6 +61,9 @@
     <t>2021-01-30</t>
   </si>
   <si>
+    <t>2021-02-13</t>
+  </si>
+  <si>
     <t>15 Mar -- 21 Mar 2020</t>
   </si>
   <si>
@@ -200,6 +203,9 @@
   </si>
   <si>
     <t>31 Jan -- 06 Feb 2021</t>
+  </si>
+  <si>
+    <t>07 Feb -- 13 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -560,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -606,7 +612,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>2.57</v>
@@ -618,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G2">
         <v>1.27</v>
@@ -635,7 +641,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -647,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -655,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>22.43</v>
@@ -667,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -675,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>62.29</v>
@@ -687,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -695,7 +701,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>106.71</v>
@@ -707,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -715,7 +721,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>167.14</v>
@@ -727,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -735,7 +741,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>159</v>
@@ -747,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -755,7 +761,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>162.71</v>
@@ -767,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -775,7 +781,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>139.57</v>
@@ -787,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,7 +801,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>95.14</v>
@@ -807,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -815,7 +821,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>99</v>
@@ -827,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -835,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>98.70999999999999</v>
@@ -847,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -855,7 +861,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>47.57</v>
@@ -867,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -875,7 +881,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>40.43</v>
@@ -887,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -895,7 +901,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>15.71</v>
@@ -907,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -915,7 +921,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>22.29</v>
@@ -927,7 +933,7 @@
         <v>4.67</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -935,7 +941,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>12.29</v>
@@ -947,7 +953,7 @@
         <v>7.06</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -955,7 +961,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>10.57</v>
@@ -967,7 +973,7 @@
         <v>5.83</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -975,7 +981,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>5.29</v>
@@ -987,7 +993,7 @@
         <v>8.69</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -995,7 +1001,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>8.140000000000001</v>
@@ -1007,7 +1013,7 @@
         <v>4.95</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1015,7 +1021,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>5.43</v>
@@ -1027,7 +1033,7 @@
         <v>7.13</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1035,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23">
         <v>6.86</v>
@@ -1047,7 +1053,7 @@
         <v>2.95</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1055,7 +1061,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>6.43</v>
@@ -1067,7 +1073,7 @@
         <v>2.83</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1075,7 +1081,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <v>6.29</v>
@@ -1087,7 +1093,7 @@
         <v>1.32</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1095,7 +1101,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>4.43</v>
@@ -1107,7 +1113,7 @@
         <v>2.52</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1115,7 +1121,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -1127,7 +1133,7 @@
         <v>3.01</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1135,7 +1141,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -1147,7 +1153,7 @@
         <v>0.06</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1155,7 +1161,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>7.29</v>
@@ -1167,7 +1173,7 @@
         <v>0.24</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1175,7 +1181,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30">
         <v>25</v>
@@ -1187,7 +1193,7 @@
         <v>17.92</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1195,7 +1201,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31">
         <v>24.71</v>
@@ -1207,7 +1213,7 @@
         <v>68.53</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1215,7 +1221,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32">
         <v>17.29</v>
@@ -1227,7 +1233,7 @@
         <v>0.51</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1235,7 +1241,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33">
         <v>26.71</v>
@@ -1247,7 +1253,7 @@
         <v>15.46</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1255,7 +1261,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34">
         <v>31.14</v>
@@ -1267,7 +1273,7 @@
         <v>6.64</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1275,7 +1281,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35">
         <v>51.43</v>
@@ -1287,7 +1293,7 @@
         <v>9.550000000000001</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1295,7 +1301,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36">
         <v>57.14</v>
@@ -1307,7 +1313,7 @@
         <v>7.23</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1315,7 +1321,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37">
         <v>72.56999999999999</v>
@@ -1327,7 +1333,7 @@
         <v>17.01</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1335,7 +1341,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>76.86</v>
@@ -1347,7 +1353,7 @@
         <v>6.1</v>
       </c>
       <c r="F38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1355,7 +1361,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39">
         <v>87.70999999999999</v>
@@ -1367,7 +1373,7 @@
         <v>4.42</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1375,7 +1381,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40">
         <v>108.57</v>
@@ -1387,7 +1393,7 @@
         <v>8.470000000000001</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1395,7 +1401,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41">
         <v>114.86</v>
@@ -1407,7 +1413,7 @@
         <v>3.18</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1415,7 +1421,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42">
         <v>94.70999999999999</v>
@@ -1427,7 +1433,7 @@
         <v>18.29</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1435,7 +1441,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C43">
         <v>124.71</v>
@@ -1447,7 +1453,7 @@
         <v>38.18</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1455,7 +1461,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C44">
         <v>166</v>
@@ -1467,7 +1473,7 @@
         <v>61.88</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J44">
         <v>61.88</v>
@@ -1481,7 +1487,7 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C45">
         <v>166</v>
@@ -1493,7 +1499,7 @@
         <v>61.88</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J45">
         <v>61.88</v>
@@ -1507,7 +1513,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C46">
         <v>145.43</v>
@@ -1519,7 +1525,7 @@
         <v>29.29</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J46">
         <v>51.02</v>
@@ -1533,7 +1539,7 @@
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C47">
         <v>144.86</v>
@@ -1545,7 +1551,7 @@
         <v>21.38</v>
       </c>
       <c r="F47" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J47">
         <v>43.61</v>
@@ -1559,7 +1565,7 @@
         <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C48">
         <v>133.43</v>
@@ -1571,7 +1577,7 @@
         <v>6.79</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J48">
         <v>36.25</v>
@@ -1580,18 +1586,56 @@
         <v>22.91</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C49">
+        <v>106</v>
       </c>
       <c r="D49">
         <v>123.43</v>
       </c>
+      <c r="E49">
+        <v>17.43</v>
+      </c>
       <c r="F49" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J49">
+        <v>33.11</v>
+      </c>
+      <c r="K49">
+        <v>21.83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50">
+        <v>76.86</v>
+      </c>
+      <c r="D50">
+        <v>115.65</v>
+      </c>
+      <c r="E50">
+        <v>38.8</v>
+      </c>
+      <c r="F50" t="s">
+        <v>64</v>
+      </c>
+      <c r="J50">
+        <v>33.92</v>
+      </c>
+      <c r="K50">
+        <v>25.92</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 1.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="67">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -64,6 +64,9 @@
     <t>2021-02-13</t>
   </si>
   <si>
+    <t>2021-02-20</t>
+  </si>
+  <si>
     <t>15 Mar -- 21 Mar 2020</t>
   </si>
   <si>
@@ -206,6 +209,9 @@
   </si>
   <si>
     <t>07 Feb -- 13 Feb 2021</t>
+  </si>
+  <si>
+    <t>21 Feb -- 27 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -566,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,7 +618,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>2.57</v>
@@ -624,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G2">
         <v>1.27</v>
@@ -641,7 +647,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -653,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -661,7 +667,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>22.43</v>
@@ -673,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -681,7 +687,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>62.29</v>
@@ -693,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -701,7 +707,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>106.71</v>
@@ -713,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -721,7 +727,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>167.14</v>
@@ -733,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -741,7 +747,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>159</v>
@@ -753,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -761,7 +767,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>162.71</v>
@@ -773,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -781,7 +787,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>139.57</v>
@@ -793,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -801,7 +807,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>95.14</v>
@@ -813,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,7 +827,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>99</v>
@@ -833,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -841,7 +847,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>98.70999999999999</v>
@@ -853,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -861,7 +867,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>47.57</v>
@@ -873,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -881,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>40.43</v>
@@ -893,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -901,7 +907,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>15.71</v>
@@ -913,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -921,7 +927,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>22.29</v>
@@ -933,7 +939,7 @@
         <v>4.67</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -941,7 +947,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>12.29</v>
@@ -953,7 +959,7 @@
         <v>7.06</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -961,7 +967,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>10.57</v>
@@ -973,7 +979,7 @@
         <v>5.83</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -981,7 +987,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>5.29</v>
@@ -993,7 +999,7 @@
         <v>8.69</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1001,7 +1007,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>8.140000000000001</v>
@@ -1013,7 +1019,7 @@
         <v>4.95</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1021,7 +1027,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>5.43</v>
@@ -1033,7 +1039,7 @@
         <v>7.13</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1041,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>6.86</v>
@@ -1053,7 +1059,7 @@
         <v>2.95</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1061,7 +1067,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>6.43</v>
@@ -1073,7 +1079,7 @@
         <v>2.83</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1081,7 +1087,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>6.29</v>
@@ -1093,7 +1099,7 @@
         <v>1.32</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1101,7 +1107,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>4.43</v>
@@ -1113,7 +1119,7 @@
         <v>2.52</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1121,7 +1127,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -1133,7 +1139,7 @@
         <v>3.01</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1141,7 +1147,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -1153,7 +1159,7 @@
         <v>0.06</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1161,7 +1167,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29">
         <v>7.29</v>
@@ -1173,7 +1179,7 @@
         <v>0.24</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1181,7 +1187,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>25</v>
@@ -1193,7 +1199,7 @@
         <v>17.92</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1201,7 +1207,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31">
         <v>24.71</v>
@@ -1213,7 +1219,7 @@
         <v>68.53</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1221,7 +1227,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32">
         <v>17.29</v>
@@ -1233,7 +1239,7 @@
         <v>0.51</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1241,7 +1247,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33">
         <v>26.71</v>
@@ -1253,7 +1259,7 @@
         <v>15.46</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1261,7 +1267,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34">
         <v>31.14</v>
@@ -1273,7 +1279,7 @@
         <v>6.64</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1281,7 +1287,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <v>51.43</v>
@@ -1293,7 +1299,7 @@
         <v>9.550000000000001</v>
       </c>
       <c r="F35" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1301,7 +1307,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>57.14</v>
@@ -1313,7 +1319,7 @@
         <v>7.23</v>
       </c>
       <c r="F36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1321,7 +1327,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37">
         <v>72.56999999999999</v>
@@ -1333,7 +1339,7 @@
         <v>17.01</v>
       </c>
       <c r="F37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1341,7 +1347,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38">
         <v>76.86</v>
@@ -1353,7 +1359,7 @@
         <v>6.1</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1361,7 +1367,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39">
         <v>87.70999999999999</v>
@@ -1373,7 +1379,7 @@
         <v>4.42</v>
       </c>
       <c r="F39" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1381,7 +1387,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40">
         <v>108.57</v>
@@ -1393,7 +1399,7 @@
         <v>8.470000000000001</v>
       </c>
       <c r="F40" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1401,7 +1407,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41">
         <v>114.86</v>
@@ -1413,7 +1419,7 @@
         <v>3.18</v>
       </c>
       <c r="F41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1421,7 +1427,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C42">
         <v>94.70999999999999</v>
@@ -1433,7 +1439,7 @@
         <v>18.29</v>
       </c>
       <c r="F42" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1441,7 +1447,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43">
         <v>124.71</v>
@@ -1453,7 +1459,7 @@
         <v>38.18</v>
       </c>
       <c r="F43" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1461,7 +1467,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C44">
         <v>166</v>
@@ -1473,7 +1479,7 @@
         <v>61.88</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J44">
         <v>61.88</v>
@@ -1487,7 +1493,7 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C45">
         <v>166</v>
@@ -1499,7 +1505,7 @@
         <v>61.88</v>
       </c>
       <c r="F45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J45">
         <v>61.88</v>
@@ -1513,7 +1519,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C46">
         <v>145.43</v>
@@ -1525,7 +1531,7 @@
         <v>29.29</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J46">
         <v>51.02</v>
@@ -1539,7 +1545,7 @@
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C47">
         <v>144.86</v>
@@ -1551,7 +1557,7 @@
         <v>21.38</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J47">
         <v>43.61</v>
@@ -1565,7 +1571,7 @@
         <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C48">
         <v>133.43</v>
@@ -1577,7 +1583,7 @@
         <v>6.79</v>
       </c>
       <c r="F48" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J48">
         <v>36.25</v>
@@ -1591,7 +1597,7 @@
         <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C49">
         <v>106</v>
@@ -1603,7 +1609,7 @@
         <v>17.43</v>
       </c>
       <c r="F49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J49">
         <v>33.11</v>
@@ -1617,7 +1623,7 @@
         <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C50">
         <v>76.86</v>
@@ -1629,13 +1635,27 @@
         <v>38.8</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J50">
         <v>33.92</v>
       </c>
       <c r="K50">
         <v>25.92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51">
+        <v>68.84999999999999</v>
+      </c>
+      <c r="F51" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
